--- a/Sudoku/experiments.xlsx
+++ b/Sudoku/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS_studies\yr2\sem2\CS3243\project2\Sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F444248-0ADE-48B6-B186-CE230DED6E8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD5EDE-D8CD-4DF6-B1BB-3DFB5C311F48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,22 @@
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">experiments!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">experiments!$C$2:$C$1001</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">experiments!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">experiments!$F$1002:$F$1101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">experiments!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">experiments!$C$1002:$C$1101</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">experiments!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">experiments!$E$1002:$E$1101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">experiments!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">experiments!$E$2:$E$1001</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">experiments!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">experiments!$D$2:$D$1001</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">experiments!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">experiments!$F$2:$F$1001</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">experiments!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">experiments!$D$1002:$D$1101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">experiments!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">experiments!$D$2:$D$1001</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">experiments!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">experiments!$E$2:$E$1001</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">experiments!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">experiments!$D$1002:$D$1101</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">experiments!$F$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">experiments!$F$1002:$F$1101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">experiments!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">experiments!$F$2:$F$1001</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">experiments!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">experiments!$C$1002:$C$1101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">experiments!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">experiments!$E$1002:$E$1101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">experiments!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">experiments!$C$2:$C$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1110">
   <si>
     <t>Test File Name</t>
   </si>
@@ -3371,6 +3371,14 @@
   </si>
   <si>
     <t>Trash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min in Difficult</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max in Simple</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -18702,12 +18710,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18760,7 +18768,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{ABA702AC-48B6-407F-86B5-4BF0DB37F5A9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Time Taken (DH Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18772,7 +18780,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{824B1BA0-3B15-4C1A-9759-53B7AF5EBE15}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Time Taken (VO Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18792,7 +18800,27 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -18802,12 +18830,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18860,7 +18888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A7122068-3EAD-4C34-96D5-0751CF287CA2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Steps Taken (DH Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18872,7 +18900,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B26D22F8-0932-4AD3-B54E-ADC772797FA7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Steps Taken (VO Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18902,12 +18930,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18960,7 +18988,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{850727D4-9D3D-43A6-B832-75CF4BD00C3D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Time Taken (DH Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18972,7 +19000,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{092D4FCA-C3A9-46DA-A43E-B3C8CE61F8D9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Time Taken (VO Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19002,12 +19030,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19062,7 +19090,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3D7E18B7-8286-4CA1-B85C-75F408DA118E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Steps Taken (DH Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19074,7 +19102,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{20B07ED7-C800-4993-9902-23913B23A77E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Steps Taken (VO Variant)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -23822,7 +23850,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5433060" y="208064100"/>
+              <a:off x="5433060" y="208208880"/>
               <a:ext cx="4831080" cy="2788920"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -23982,7 +24010,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5455920" y="207218280"/>
+              <a:off x="5455920" y="207363060"/>
               <a:ext cx="4857750" cy="2811780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -24315,8 +24343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
-      <selection activeCell="J1117" sqref="J1117"/>
+    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
+      <selection activeCell="B1102" sqref="B1102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -46348,6 +46376,24 @@
         <v>45339</v>
       </c>
     </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1102">
+        <f>MIN(B1002:B1101)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1103">
+        <f>MAX(B2:B1001)</f>
+        <v>54</v>
+      </c>
+    </row>
     <row r="1104" spans="1:6">
       <c r="A1104" t="s">
         <v>1106</v>
